--- a/Excel/TestGround.xlsx
+++ b/Excel/TestGround.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA8004-FB9A-4A78-B69A-C2E452BE0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B770FB3-7141-467A-9BC7-1255BC9B2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="28800" windowHeight="7845" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,16 +544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:OP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="406" width="3.125" customWidth="1"/>
+    <col min="1" max="406" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:406" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:406" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -1796,13 +1796,13 @@
         <v>101</v>
       </c>
       <c r="H2" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K2" s="3">
         <v>102</v>
@@ -2993,7 +2993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -3013,19 +3013,19 @@
         <v>101</v>
       </c>
       <c r="G3" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J3" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K3" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L3" s="2">
         <v>102</v>
@@ -4213,7 +4213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -4233,19 +4233,19 @@
         <v>101</v>
       </c>
       <c r="G4" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2">
         <v>102</v>
       </c>
       <c r="J4" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K4" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L4" s="2">
         <v>102</v>
@@ -5433,7 +5433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>101</v>
       </c>
@@ -5453,19 +5453,19 @@
         <v>101</v>
       </c>
       <c r="G5" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I5" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J5" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K5" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L5" s="2">
         <v>102</v>
@@ -6653,7 +6653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -6676,13 +6676,13 @@
         <v>101</v>
       </c>
       <c r="H6" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I6" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K6" s="2">
         <v>102</v>
@@ -7873,7 +7873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>101</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>101</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>101</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>101</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>101</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>101</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>101</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>101</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>101</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:406" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:406" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>101</v>
       </c>
